--- a/baiPoC/getPdfText.xlsx
+++ b/baiPoC/getPdfText.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlee\Desktop\PoC\baiPoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoC\baiPoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CD062-1A8A-4BE6-9867-16631106B1B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="0" windowWidth="21660" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="0" windowWidth="21660" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,92 +26,460 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>감              사              원_x000D_
-주      의      요      구_x000D_
-_x000D_
-제                    목 민간학회 학술대회 지원 부적정_x000D_
-소    관    기    관 감사원_x000D_
-조    치    부    서 감사연구원_x000D_
-내                    용_x000D_
-_x000D_
-감사연구원은 국내 학회 및 기관과의 교류협력 등을 위해 사단법인 ○○학_x000D_
-_x000D_
-회 등 민간단체의 학술대회를 지원하고 있다._x000D_
-_x000D_
-｢예산안 편성 및 기금운영계획안 작성 세부지침｣ (기획재정부) 등 에 따르면_x000D_
-_x000D_
-비영리법인․단체 등 민간부문에서 주관하는 행사는 원칙적으로 자체부담으로_x000D_
-_x000D_
-추진하도록 되어 있고, 예외적으로 민간이 주관하는 행사를 지원할 경우에는 민_x000D_
-_x000D_
-간 보조사업인 것을 전제로 하여 보조금 예산을 편성·집행하도록 되어 있다.1)_x000D_
-_x000D_
-또한 위 지침 및 ｢예산 및 기금운용계획 집행지침｣ (기획재정부) 등에 따르면_x000D_
-_x000D_
-중앙행정기관이 행사를 주관하는 경우 경비의 성질에 따라 예산을 구체적으로_x000D_
-_x000D_
-작성토록 하여 행사에 필요한 물품 등을 일반수용비2) 등의 예산과목으로 편_x000D_
-_x000D_
-성․집행하도록 하고 있다._x000D_
-_x000D_
-따라서 민간이 주관하는 행사 경비는 필요할 때 보조금 예산을 편성하여 집_x000D_
-_x000D_
-1) 민간과 지방자치단체가 주관하는 행사(민간 또는 지방자치단체 보조사업) 중 개최횟수가 총 7회를 초과하는 행_x000D_
-사의 경우 예산 요구시 그간의 성과, 계속지원 필요성, 지원종료계획 등이 포함된 자체평가 결과를 함께 제출하_x000D_
-도록 되어 있고, 사업비 총액만을 작성하여 행사주관 민간단체에 보조금을 지급하는 것을 지양하도록 되어 있으_x000D_
-며, 행사개최를 위해 보조금을 지원하는 경우에는 ｢보조금 관리에 관한 법률｣에 따라 정산하도록 규정_x000D_
-2) 통상적인 조직운영에 소요되는 기본적인 행정사무비 또는 기타 업무수행과정에서 소규모적으로 발생되는 물품의_x000D_
-구입비에 사용되는 예산과목(210-01목)행하여야 하고, 일반수용비 예산으로 집행해서는 아니 된다._x000D_
-_x000D_
-그런데 위 부서는 2018. 12. 13. ○○학회가 주최한 "2018년 ○○학회 동계_x000D_
-_x000D_
-학술대회" (행사기간: 2018. 12. 14.～12. 15.) 에 행사지원 목적으로 5백만 원을 지급_x000D_
-_x000D_
-하는 등 [별표] "2018년 민간학회 학술대회 경비 지원 현황"과 같이 5개 학회에_x000D_
-_x000D_
-총 19백만 원을 보조금이 아닌 감사연구활동경비 (세부사업) 의 일반수용비 예산으_x000D_
-_x000D_
-로 집행하였다._x000D_
-_x000D_
-관계기관  의견 감사연구원은 감사결과를 받아들이면서 향후 민간학회와 학_x000D_
-_x000D_
-술대회 공동개최 등 관련 규정에 맞게 일반수용비를 집행하겠다는 의견을 제시_x000D_
+    <t>개별처분요구안 ( 1 )번 감 사 원_x000D_
+징 계 요 구_x000D_
+_x000D_
+제 목 과징금 감경 관련 이의신청 업무 부당 처리_x000D_
+소 관 기 관 공정거래위원회_x000D_
+조 치 기 관 공정거래위원회_x000D_
+내 용_x000D_
+_x000D_
+1. 사건 개요_x000D_
+_x000D_
+공정거래위원회 (이하 “공정위”라 한다) 는 2015. 12. 23. ‘ㄱ’ 사건 (이하 “ㄴ 사건”_x000D_
+_x000D_
+이라 한다) 과 관련하여 ◎◎주식회사 (대표이사 A, 이하 “◎◎”라 한다) 등 6개 업체 1) 가_x000D_
+_x000D_
+시장점유율과 ㅁ 가격을 공동으로 결정하여 ｢독점규제 및 공정거래에 관한 법률｣ (이하_x000D_
+_x000D_
+“공정거래법”이라 한다) 을 위반한 것으로 심의하고, 다음 해 3. 3. ◎◎에 과징금 436_x000D_
+_x000D_
+억 56백만 원 (이하 “이 사건 과징금”이라 한다) 을 부과하는 것으로 의결 (이하 “원심결”이_x000D_
+_x000D_
+라 한다) 하였다._x000D_
+_x000D_
+이에 ◎◎는 2016. 4. 11. 공정위에 과징금 납부능력이 없다는 사유로 과징금 감_x000D_
+_x000D_
+경을 요청하는 이의신청 (이하 “당초 이의신청”이라 한다) 을 하였고, 같은 해 5. 12.에_x000D_
+_x000D_
+는 [표]와 같이 원심결 의결일을 기준으로 3개년 (2013~2015년) 가중평균 당기순_x000D_
+_x000D_
+이익이 134억 66백만 원 적자 2) 이므로 이 사건 과징금을 감경하여 달라며 당초 이의_x000D_
+_x000D_
+신청에 대한 추가 의견 (이하 “추가 의견”이라 한다) 을 제출하였다._x000D_
+_x000D_
+1) 1개 업체는 공동행위를 위한 모임에 참석하였는지 입증할 수 있는 객관적인 자료가 없어 무혐의로 결정함_x000D_
+2) 2013년 손익계산서상 당기순이익 37억 17백만 원을 적용함[표] ◎◎의 3개년 가중평균 당기순이익_x000D_
+_x000D_
+(금액단위: 백만 원)_x000D_
+_x000D_
+원심결(심의일 2015.12.23. 기준) 이의신청(의결일 2016.3. 3. 기준)_x000D_
+구분_x000D_
+2012년 2013년 2014년 2013년 2014년 2015년_x000D_
+_x000D_
+당기순이익 3,423 3,621 8,504 3,621 8,504 -33,840_x000D_
+_x000D_
+3개년가중평균(1:2:3) 당기순이익 6,030 -13,482주)_x000D_
+_x000D_
+주: 지분법 적용_x000D_
+_x000D_
+자료: 공정위 제출자료재구성_x000D_
+_x000D_
+그런데 ◎◎의 3개년 가중평균 당기순이익을 134억 82백만 원 적자로 산정한_x000D_
+_x000D_
+경위를 살펴보면, 이 사건 원심결의 과징금 436억 56백만 원을 2015년 재무제표 (포_x000D_
+_x000D_
+괄손익계산서) 에 기타비용 (잡손실) 으로 반영하여 2015년 당기순이익이 적자가 된_x000D_
+_x000D_
+것인데도 이의신청 건 담당자는 공시된 2015년 사업보고서 내용 등을 제대로 확인하_x000D_
+_x000D_
+지 않고 이 사건 과징금의 50%인 218억 28백만 원을 부당하게 감경하는 것으로 이_x000D_
+_x000D_
+의신청 심사보고서를 작성하여 담당과장의 검토를 거쳐 위원회에 상정하였으며, 위_x000D_
+_x000D_
+원회는 2016. 6. 3. 이의신청 심사보고서의 내용대로 일부 인용하는 변경·의결 (이_x000D_
+_x000D_
+하 “재결”이라 한다) 을 하였다._x000D_
+_x000D_
+이후 공정위는 2016. 9. 12.경 ◎◎가 이 사건 과징금을 2015년 재무제표에 반_x000D_
+_x000D_
+영한 사실을 알게 되어 3) 2017. 2. 17. ◎◎의 ㄴ 사건에 대한 이의신청 재결을 직권_x000D_
+_x000D_
+으로 취소하였는데, 그 구체적인 내용은 다음과 같다._x000D_
+_x000D_
+2. ◎◎의 과징금 관련 회계처리 경위 및 관련 규정 등_x000D_
+_x000D_
+가. ◎◎의 과징금 관련 회계처리 경위_x000D_
+_x000D_
+3) ◎◎가 관련된 ‘ㄹ 건’의 심결보좌 담당자인 ▷담당관실 L은 해당 사건에 대한 심의 과정에서 ㄹ 사건 조사담당자인_x000D_
+▽과 B에게 업무 협조 요청을 하였고, B이 ◎◎의 2015년 사업보고서 전체를 살펴보던 중 ‘V. 이사의 경영진단 및_x000D_
+분석의견’ 164쪽에서 “공정위로부터부과받은 과징금 437억 원을 2015년 말 재무제표에반영하여 당기순이익은적_x000D_
+자로 전환”하였다는 내용을 확인함◎◎는 2015. 12. 24. 공정위로부터 ㄴ 사건의 심의결과를 구두로 통보받은 후_x000D_
+_x000D_
+공정위가 2016. 1. 5. “ㅁ 업체들의 시장점유율 등 담합 행위 제재”라는 보도자료를_x000D_
+_x000D_
+내자 이를 근거로 이 사건 과징금 4) 부과 사실을 한국거래소의 전자공시시스템 (KIND)_x000D_
+_x000D_
+및 이와 연계된 금융감독원의 전자공시시스템 (이하 “DART”라 한다) 5) 에 공시 6) 하였_x000D_
+_x000D_
+다._x000D_
+_x000D_
+이후 ◎◎는 2016. 3. 11. 공정위로부터 ㄴ 사건의 원심결 의결서를 받고 한국채_x000D_
+_x000D_
+택국제회계기준에 따라 같은 날 이 사건 과징금을 2015년 말 재무제표에 반영 7) 하였_x000D_
+_x000D_
+다는 내용의 ‘[기재정정] 벌금 등의 부과’ 보고서를, 같은 해 3. 30.에는 공정위로부_x000D_
+_x000D_
+터 부과받은 이 사건 과징금을 2015년 말 재무제표에 반영하여 당기순이익이 적자_x000D_
+_x000D_
+로 전환하였다는 내용이 포함8)된 2015년 사업보고서 (재무제표 포함) 를 DART 등에_x000D_
+_x000D_
+공시하였다._x000D_
+_x000D_
+나. 과징금 관련 규정 및 판단 근거_x000D_
+_x000D_
+구 ｢공정거래위원회 회의 운영 및 사건절차 등에 관한 규칙｣ (2017. 4. 14. 공정위_x000D_
+_x000D_
+고시 제2017-2호로 개정되기 전의 것, 이하 “사건절차규칙”이라 한다) 제20조 및 제65조_x000D_
+_x000D_
+4) 2014년 연결재무제표 기준 자기자본 3,466억 39백만 원의 12.59%에 해당함_x000D_
+5) 한국거래소는상장법인이 손익 등에 관한 사실 등을 신고한 경우 ｢자본시장과 금융투자업에관한 법률｣제392조 제3_x000D_
+항 등에 따라 금융감독원(금융위원회가 위 법 제438조 등에 따라 권한의 일부를 위탁) 전자공시시스템(DART)에_x000D_
+이를 송부하고, 금융감독원에서는｢증권의 발행 및 공시 등에 관한 규정｣(금융위원회고시)제6-5조에 따라 전자문_x000D_
+서의 방법으로 제출된 사업보고서 등을 한국거래소 전자공시시스템(KIND)에 전송하는 등 각각 제출받은 신고서 등_x000D_
+을상호 전송받아전자공시시스템을통해 공시하고있음_x000D_
+_x000D_
+6) ｢자본시장과 금융투자업에관한 법률｣ 제391조 등에 따라 한국거래소가주권 등 상장법인의 기업내용 등의 신고·공_x000D_
+시 및 관리를 위해 만든 규정인 ｢유가증권시장공시규정｣ 제7조 제1항 제2호 라목 (2) 및 제21조, 같은 규정 시행세_x000D_
+칙 제4조 등에 따르면 주권상장법인은그 사업보고서를한국거래소에각 사업연도 경과 후 90일 이내에 제출하여야_x000D_
+하고, 자기자본의100분의 5 이상의 벌금 등이 부과된 사실이 확인된 때에는 그 사유 발생일 당일에 한국거래소 전_x000D_
+자공시시스템 에 공시하도록되어 있음_x000D_
+(KIND)_x000D_
+7) 한국채택국제회계기준(K-IFRS, 한국회계기준원) 제1037호에 따르면 ① 과거사건의결과로 현재의무가존재하고,_x000D_
+② 해당 의무를 이행하기 위하여 경제적 효익이 있는 자원을 유출할 가능성이 높으며, ③ 해당 의무를 이행하기 위_x000D_
+하여 필요한 금액을 신뢰성 있게 추정할 수 있다면 충당부채로인식하도록되어 있음_x000D_
+_x000D_
+8) ‘V. 이사의 경영진단및 분석의견’의3. 나.에 기재되어 있음등에 따르면 과징금 부과가 필요하다고 인정되는 사건의 경우 최근 3년간 당기순이익_x000D_
+_x000D_
+상황 등 피조사인의 과징금 납부능력 관련 사항을 조사할 수 있다고 되어 있고, 이의_x000D_
+_x000D_
+신청이 제기된 이후에는 사건절차규칙에 정해진 사건처리절차를 준용하도록 되어_x000D_
+_x000D_
+있다._x000D_
+_x000D_
+그리고 당해 사건으로 부과될 과징금이 미리 비용으로 반영된 후의 재정상태를_x000D_
+_x000D_
+기초로 그 위반사업자가 당해 사건으로 부과받을 과징금을 납부할 능력이 있는지_x000D_
+_x000D_
+판단하는 것은 그 자체로 불합리할 뿐 아니라 과징금 고시에서 위반사업자의 현실적_x000D_
+_x000D_
+과징금 부담능력을 고려한 감경 규정을 둔 취지에도 부합하지 않는바, 9) 그러한 취_x000D_
+_x000D_
+지는 구 ｢과징금부과 세부기준 등에 관한 고시｣ (2016. 12. 30. 공정위고시 제2016-_x000D_
+_x000D_
+22호로 개정되기 전의 것) IV. 4. 가. (1)에도 현실적 부담능력에 따른 과징금 조정은_x000D_
+_x000D_
+과징금 납부로 인해 단순히 자금 사정에 어려움이 예상되는 경우에는 인정되지_x000D_
+_x000D_
+않는다고 명시되어 있어 당해 사건으로 부과될 과징금이 비용으로 반영된 후의 재무_x000D_
+_x000D_
+상태를 기초로 위반사업자가 과징금을 납부할 능력이 있는지 판단하는 것은 아니라는_x000D_
+_x000D_
+것을 알 수 있다._x000D_
+_x000D_
+이와 관련하여 공정위는 2016. 4. 25. 위반행위로 인하여 예상되는 과징금을 재무_x000D_
+_x000D_
+제표에 비용 항목으로 계상한 경우에는 이를 제외한 금액으로 당기순이익을 재산정_x000D_
+_x000D_
+한다는 내용으로 “12개 골판지 이면지ㆍ골심지 원지 제조ㆍ판매 사업자의 원지 판매_x000D_
+_x000D_
+부당한 공동행위에 대한 건 및 6개 골판지 표면지 원지 제조ㆍ판매 사업자의 원지_x000D_
+_x000D_
+9) 서울고등법원(2017. 10. 25. 선고 2017누40084 판결)에서 ｢과징금부과 세부기준 등에 관한 고시｣에서 감경_x000D_
+규정을 둔 취지는 위반사업자의 현실적 과징금 부담능력을 고려하여 과징금을 감경하도록 한 것으로 당해 사_x000D_
+건으로 부과될 과징금이 미리 비용으로 반영된 후 재정상태를 기초로 그 위반사업자가 당해 사건으로 부과받_x000D_
+을 과징금을 납부할 능력이 있는지 판단하는 것은 그 자체로 불합리하고 감경 규정을 둔 취지에도 부합하지_x000D_
+않는다고 하였음판매 부당한 공동행위에 대한 건” (이하 “골판지 담합 사건”이라 한다) 을 의결10) 바 있다._x000D_
+한_x000D_
+_x000D_
+따라서 원심결에서 주장하지 않은 3개년 가중평균 당기순이익 적자를 사유로_x000D_
+_x000D_
+이 사건 과징금을 감경하여 달라는 이의신청이 제기되었을 때에는 공정위가 비용으로_x000D_
+_x000D_
+인정할 수 없는 항목이 재무제표에 반영되어 당기순이익 적자가 발생하였는지 등 3개년_x000D_
+_x000D_
+가중평균 당기순이익의 적자 전환 사유를 확인하여야 했다._x000D_
+_x000D_
+3. 관련자들의 부당한 업무 처리_x000D_
+_x000D_
+공정위 사무처 ○ 국 □ 과 C은 2016. 3. 23.부터 2017. 4. 27.까지 △실 ▷담당관_x000D_
+_x000D_
+실에 근무하면서 전원회의와 소회의 상정안건에 대한 위원 심결보좌 11) 와 이의신청_x000D_
+_x000D_
+건에 대한 담당 및 심결보좌 업무를 담당12)하였고, 공정위 사무처 과장 D는 2016._x000D_
+_x000D_
+4. 11.부터 2017. 9. 21.까지 △실 ▷담당관으로서 심사보고서의 검토, 이의신청 사_x000D_
+_x000D_
+건의 처리 등 과 업무를 총괄하였다._x000D_
+_x000D_
+가. C의 경우_x000D_
+_x000D_
+◎◎는 2016. 3. 23. 이 사건 과징금의 납부기한 연장 및 분할납부를 신청하면_x000D_
+_x000D_
+서 2015년 당기순이익 적자가 338억 40백만 원에 이른다는 내용을 포함하여 과징_x000D_
+_x000D_
+금 납부기한의 연장 및 분할납부를 허용해 달라고 주장하였으나, 같은 해 4. 11. 이_x000D_
+_x000D_
+의신청을 제출하면서는 2015년 당기순이익이 적자인 것과 이로 인해 3개년 가중평_x000D_
+_x000D_
+균 당기순이익이 적자가 된 것을 주장하지 않았다._x000D_
+_x000D_
+10) 골판지 담합 사건에서 신대양제지주식회사가 공정위로부터 부과받을 것으로 추정되는 과징금 293억 14백만 원을_x000D_
+2015년 재무제표에 우발손실충당부채전입액으로계상하여 당기순이익을147억 45백만 원 적자로 공시한 데 대하여_x000D_
+과징금 293억 14백만 원을 비용에서 제외하고당기순이익을재산정하여81억20백만 원 흑자인 것으로 판단함_x000D_
+_x000D_
+11) 심사보고서 검토, 쟁점의 정리 등 심의절차 준비, 의결서 작성 등 업무 수행_x000D_
+_x000D_
+12) 원심결의 심결보좌는 △실 소속 ♡담당관실에서 담당(과장 M)하였으나 ◎◎의 과징금 납부기한 연장 및 분할_x000D_
+납부 신청 당시 근무하던 후임 과장 N는 ▽국 ▽과 근무 당시 원심결의 사건 담당을 하여 제척사유에 해당함._x000D_
+이에 따라 ▷담당관실로 담당부서가 변경되었고, 2016. 4. 11. ▷담당관으로 인사발령된 과장 D는 같은 해 4월_x000D_
+중순경 C에게 ◎◎의 이의신청 건을 배정하였고, C은 같은 해 4. 20. 사건 착수 보고를 하였음이에 위 사람은 2016년 5월 초순경 이의신청 심사보고서를 작성하던 중 ㄴ 사_x000D_
+_x000D_
+건과 관련한 과징금 납부기한의 연장 및 분할납부 신청 건과 이의신청 건의 주장 사_x000D_
+_x000D_
+이에 이와 같은 차이가 있다는 것을 알게 되었다._x000D_
+_x000D_
+그런데 위 사람은 이 사건 과징금이 2015년 재무제표에 비용 항목으로 계상되_x000D_
+_x000D_
+었다는 내용이 담긴 2015년 사업보고서나 ‘[기재정정] 벌금 등의 부과’ 보고서 등_x000D_
+_x000D_
+◎◎가 DART 등에 공시한 자료를 확인하지 않는 등 당기순이익이 적자인 사유를_x000D_
+_x000D_
+검토하지 않은 채 2016. 5. 9.경 담당과장 (▷담당관) D에게 ◎◎의 최근 3개년_x000D_
+_x000D_
+(2013~2015년) 가중평균 당기순이익이 적자여서 과징금 감경대상이나 과징금 감경_x000D_
+_x000D_
+을 주장하지 않아 당초 이의신청을 기각할지 아니면 소송에서 패소할 우려가 있으_x000D_
+_x000D_
+므로 과징금을 직권 감경할지 검토할 필요가 있다고 보고13)하였다._x000D_
+_x000D_
+이에 위 사람은 같은 날 담당과장 D로부터 이의신청인의 대리인에게 연락하여_x000D_
+_x000D_
+이 사건 과징금 납부기한의 연장 및 분할납부 신청 건에서는 2015년 당기순이익이_x000D_
+_x000D_
+적자인 사실을 주장하고서도 이의신청 건에서는 이를 주장하지 않은 사유를 문의·_x000D_
+_x000D_
+확인하고, 몰라서 주장하지 않은 것이라면 추가 의견을 제출받아 처리하라는 지시를_x000D_
+_x000D_
+받았다._x000D_
+_x000D_
+이에 따라 위 사람은 같은 날 이의신청인의 대리인인 변호사 F에게 전화하여_x000D_
+_x000D_
+2015년 당기순이익이 적자이고 과징금 산정 시 의결일 기준으로 공정거래법 위반_x000D_
+_x000D_
+사업자의 재정상태를 종합적으로 고려하도록 판시하고 있는 판례 14) 에 따라 2015_x000D_
+_x000D_
+13) 2013년 손익계산서상 당기순이익 37억 17백만 원을 적용함_x000D_
+_x000D_
+14) ‘인천도시철도 2호선 턴키공사 입찰담합사건’에 대한 판결(대법원 2015. 5. 28. 선고 2015두36256 판결, 이_x000D_
+하 “GS판결”이라 한다)에 따르면 과징금 납부명령 등이 재량권 일탈·남용으로 위법한지는 다른 특별한 사정_x000D_
+이 없는 한 과징금 납부명령 등이 행하여진 의결일을 기준으로 적용하고, 공정거래법령이 위반사업자의 현_x000D_
+실적 부담능력을 임의적 감경사유로 규정한 취지 등에 비추어 특별한 사정이 없는 한 자산·자본·부채 상황,_x000D_
+당기순이익 등 손익 내용 및 이익잉여금의 규모 등 위반사업자의 전체적인 재정상태를 종합적으로 고려년을 포함한 최근 3개년 가중평균 당기순이익이 적자에 해당되어 이 사건 과징금_x000D_
+_x000D_
+감경을 주장할 수 있는데도 이러한 주장을 하지 않은 사유에 대하여 문의 15) 하였고,_x000D_
+_x000D_
+변호사 F는 2016. 5. 12. 2015년 당기순이익 적자를 포함한 3개년 가중평균 당기_x000D_
+_x000D_
+순이익이 적자이므로 이 사건 과징금을 감경하여 달라는 내용의 추가 의견을 제출_x000D_
 _x000D_
 하였다._x000D_
 _x000D_
-조치할    사항 감사연구원장은 앞으로 ｢예산 및 기금운용계획 집행지침｣ 등_x000D_
-_x000D_
-과 다르게 예산을 집행하는 일이 없도록 관련 업무를 철저히 하시기 바랍니다._x000D_
-_x000D_
-(주의)[별표]_x000D_
-_x000D_
-2018년 민간학회 학술대회 경비 지원 현황_x000D_
-_x000D_
-(금액단위: 원)_x000D_
-_x000D_
-연번 학회명 행사명 행사기간 지급일자 지급금액_x000D_
-_x000D_
-1 (사)○○학회 2018년 ○○학회 동계학술대회 2018. 12. 14. 2018. 12. 13. 5,000,000_x000D_
-~12. 15._x000D_
-_x000D_
-2 (사)☆☆학회 2018년 ☆☆학회 추계학술대회 2018. 11. 22. 2018. 12. 10. 3,000,000_x000D_
-_x000D_
-3 (사)★★학회 2018년 ★★학회 동계학술대회 2018. 12. 7. 2018. 12. 5. 5,000,000_x000D_
-_x000D_
-4 (사)◎◎학회 2018년 ◎◎학회 추계학술대회 2018. 11. 2. 2018. 11. 1. 3,000,000_x000D_
-_x000D_
-5 (사)◆◆학회 2018년 ◆◆학회 추계학술대회 2018. 11. 9. 2018. 10. 24. 3,000,000_x000D_
-_x000D_
-합계 19,000,000_x000D_
-_x000D_
-자료: 감사대상부서 제출자료 재구성</t>
+그런데 변호사 F가 추가 의견과 함께 제출한 2015년 재무제 표(포괄손익계산서)_x000D_
+_x000D_
+를 살펴보면, 당기 영업이익이 338억 11백만 원 흑자였으나 전기에 74억 22백만 원_x000D_
+_x000D_
+이던 기타비용이 당기에 484억 37백만 원으로 550% 이상 증가하여 당기순이익이_x000D_
+_x000D_
+적자로 전환되었고, 특히 2015년 사업보고서의 재무제표 주석에 따르면 기타비용_x000D_
+_x000D_
+중 전기에 2억 8백만 원이던 잡손실이 당기에 이 사건 과징금 규모와 비슷한 438_x000D_
+_x000D_
+억 65백만 원으로 급격하게 증가한 것으로 나타나는 등 기타비용이 2015년 당기순_x000D_
+_x000D_
+이익이 적자에 이르게 된 중요한 요인이었다는 것을 쉽게 알 수 있었다._x000D_
+_x000D_
+그런데도 위 사람은 218억 28백만 원에 달하는 16) 과징금을 감경하는 이의신청_x000D_
+_x000D_
+건을 처리하면서 기타비용 (잡손실) 이 급증한 원인과 2015년 당기순이익이 338억_x000D_
+_x000D_
+40백만 원 적자인 사유를 DART 등에 공시된 사업보고서 등의 자료를 확인하거나_x000D_
+_x000D_
+이의신청인 등에게 자료를 추가 요청하여 확인하는 등의 필요한 조사를 하지 않은_x000D_
+_x000D_
+채, 2016. 3. 30. DART 등에 공시된 ◎◎의 2015년 사업보고서 내 포괄손익계산_x000D_
+_x000D_
+하여 판단하여야 한다고 판시하였음_x000D_
+_x000D_
+15) A은 감사원 감사 과정에서 변호사 F는 GS판결을 알지 못하여 3개년 가중평균 당기순이익 적자를 사유로 당초_x000D_
+이의신청을 하지 않은 것이고, 이러한 내용이 담긴 의견서를 추가로 제출하겠다고 답변한 것으로 진술하였음._x000D_
+▷담당관실에서는 이의신청 건의 심사관인 △(국장 E)에게 이의신청인과의 통화 등과 관련된 내용을 보고_x000D_
+하지 않았음_x000D_
+16) 최근 5년간 공정위가 부과한 업체별 평균 과징금액은 21억 원임서 및 재무제표 주석17)상의 당기순이익 수치만 확인하고 추가 의견에서 주장하는 3_x000D_
+_x000D_
+개년 가중평균 당기순이익 적자를 그대로 인정한 후 추가 의견이 제출된 2016. 5._x000D_
+_x000D_
+12. 오후에 바로 이의신청 심사보고서를 작성 18) 하여 안건으로 상정하였다._x000D_
+_x000D_
+그 결과 “1항”과 같이 공정위가 이 사건 과징금을 부당하게 감경해 주는 재결 19)_x000D_
+_x000D_
+을 하였고, 이후 이의신청 재결 취소, 과징금 재부과, 20) 공정위 자체감사 실시, 21)_x000D_
+_x000D_
+행정소송 22) 등으로 행정력을 낭비하게 되었으며, 위원회의 심결제도 운영에 대한_x000D_
+_x000D_
+대외 신뢰도를 떨어뜨리는 원인을 제공하였다._x000D_
+_x000D_
+나. D의 경우_x000D_
+_x000D_
+위 사람은 2016. 5. 9.경 C으로부터 위 “가항”과 같이 ◎◎의 최근 3개년_x000D_
+_x000D_
+(2013~2015년) 가중평균 당기순이익이 적자여서 과징금 감경대상이나 과징금 감_x000D_
+_x000D_
+경을 주장하지 않아 당초 이의신청을 기각할지, 아니면 소송에서 패소할 우려가 있_x000D_
+_x000D_
+으므로 과징금을 직권 감경할지 검토할 필요가 있다는 보고를 받아 ◎◎가 당초 이_x000D_
+_x000D_
+의신청에서 2015년 당기순이익 적자를 주장하지 않은 사실을 알고 있었다._x000D_
+_x000D_
+그런데 위 사람은 이의신청 건 재결처리 담당자인 C에게 ◎◎가 이의신청을 제_x000D_
+_x000D_
+기하면서 과징금 감경을 주장하지 못한 사유가 있는지와 공정위가 비용으로 인정할_x000D_
+_x000D_
+17) 재무제표 주석은 재무제표에 표시된 항목을 구체적으로 설명하거나 세분화하고, 재무제표 인식요건을 충족하지_x000D_
+못하는 항목에 대한 정보를 제공함_x000D_
+_x000D_
+18) 2016. 4. 11. 당초 이의신청이 제기된 후 같은 해 5. 12. 오전에 추가 의견이 제출되기 전까지 당초 이의신청을_x000D_
+토대로 이의신청 심사보고서 초안 작성을 끝마친 상태였음_x000D_
+_x000D_
+19) 원심결의 심의일 이후 의결일 당시 2015년 재무제표가 확정되었고 3개년 (2013~2015년) 가중평균 당기순이익이_x000D_
+적자인 것을 감안할 때 현실적 부담능력을 충분히 반영하지못하여 과중하다고 판단함_x000D_
+_x000D_
+20) 2017. 4. 4. 이의신청 재결 직권취소에도 불구하고 이 사건 이의신청 재결 시 감액된 과징금이 자동으로 소생되_x000D_
+지 않는다고 판단하고 이의신청 재결에서 잘못 감액된 과징금 218억 28백만 원을 재부과하는 의결을 하였음_x000D_
+_x000D_
+21) 공정위는 ◎◎의 이의신청 건을 처리하면서 봐줬다는 의혹이 제기됨에 따라 2018. 2. 19.부터 같은 해 4. 13.까_x000D_
+지 자체감사를 실시하여 이의신청 재결 시 과징금을 선반영한 사실을 알지 못한 데 대해 성실의무 위반으로 이의_x000D_
+신청 사건 담당자 C, 과장 D, 국장 E에 대해 각각 주의조치함_x000D_
+_x000D_
+22)공정위는 이 사건 과징금의 재결 직권 취소 및 재부과와 관련하여 ◎◎가 제기한 행정소송에서 일부 승소함에 따_x000D_
+라 소송 비용으로 총 21백만여 원을 부담하였음수 없는 항목이 재무제표에 반영되어 당기순이익 적자가 발생하였는지 등 ◎◎의_x000D_
+_x000D_
+최근 3년간 당기순이익 상황 등을 확인해 보도록 지시하지 않은 채 이의신청인의 대_x000D_
+_x000D_
+리인에게 연락하여 이 사건 과징금 납부기한의 연장 및 분할납부 신청 건에서는_x000D_
+_x000D_
+2015년 당기순이익이 적자인 사실을 주장하고서도 이의신청 건에서는 이를 주장하지_x000D_
+_x000D_
+않은 사유를 문의·확인하고, 몰라서 주장하지 않은 것이라면 추가 의견을 제출받아_x000D_
+_x000D_
+처리하라고만 지시하였다._x000D_
+_x000D_
+그리고 위 사람은 C이 이의신청인의 대리인으로부터 2016. 5. 12. 오전에추가_x000D_
+_x000D_
+의견을 제출받아 같은 날 오후에 바로 ◎◎의 3개년 가중평균 당기순이익 적자를_x000D_
+_x000D_
+그대로 인정하는 내용의 이의신청 심사보고서를 상신하자 첨부된 재무제표 (포괄손_x000D_
+_x000D_
+익계산서) 를 통해 2015년 당기순이익이 적자에 이르게 된 중요한 요인이 있는지를_x000D_
+_x000D_
+제대로 확인하지 않은 채 그대로 검토하여 위원회 안건으로 상정하였다._x000D_
+_x000D_
+그 결과 “1항”과 같이 공정위가 이 사건 과징금을 부당하게 감경해 주는 재결을_x000D_
+_x000D_
+하였고, 이후 이의신청 재결 취소, 과징금 재부과, 공정위 자체감사 실시, 행정소송_x000D_
+_x000D_
+등으로 행정력을 낭비하게 되었으며, 위원회의 심결제도 운영에 대한 대외 신뢰도를_x000D_
+_x000D_
+떨어뜨리는 원인을 제공하였다._x000D_
+_x000D_
+관계자 의견 및 검토결과_x000D_
+_x000D_
+① C의 경우_x000D_
+_x000D_
+C은 ◎◎ 이의신청 건을 처리하면서 사건절차규칙 제20조에 최근 3년간 당기순_x000D_
+_x000D_
+이익 상황 등 과징금 납부능력 관련사항을 조사하는 규정이 있는지 알지 못한 상태_x000D_
+_x000D_
+에서 구 ｢과징금부과 세부기준 등에 관한 고시｣ (2013. 6. 5. 공정위 고시 제2013-2호로 개정되기 전의 것) IV. 4. 가. (1)의 (가)에 재무제표상의 3개년 가중평균 당기순_x000D_
+_x000D_
+이익 적자 여부를 검토하도록 되어 있어 재무제표상의 당기순이익 수치만 확인하였_x000D_
+_x000D_
+다고 답변하였다._x000D_
+_x000D_
+그러나 C은 사건절차규칙 등에 따라 사업보고서 등 관련 자료와 ◎◎의 공시자_x000D_
+_x000D_
+료 등을 조회하여 2015년 당기순이익 상황을 확인하여야 했으나 위 규정을 제대로_x000D_
+_x000D_
+숙지하지 않아 2015년 당기순이익이 적자가 된 원인을 파악하지 못한 잘못이 있다._x000D_
+_x000D_
+또한 위 사람은 이 사건 이의신청을 담당하기 전까지 국제카르텔과, 심판총괄담_x000D_
+_x000D_
+당관실, 송무담당관실 등에서 16년간 근무한 경력이 있어 과징금 부과가 필요하다고_x000D_
+_x000D_
+인정되는 사건의 경우 최근 3년간 당기순이익 상황 등 이의신청인의 과징금 납부능력_x000D_
+_x000D_
+관련 사항을 조사할 수 있도록 규정한 사건절차규칙을 몰랐다고 보기 어렵고, 설사_x000D_
+_x000D_
+몰랐다 하더라도 해당 규정을 제대로 숙지하지 않아 2015년 당기순이익 적자가 발_x000D_
+_x000D_
+생한 원인 등을 확인하지 않았으므로 위 주장은 받아들이기 어렵다._x000D_
+_x000D_
+② D의 경우_x000D_
+_x000D_
+D는 2015년 당기순이익 적자가 발생한 사유나 사업보고서 전체에 대한 검토가_x000D_
+_x000D_
+필요하다는 생각을 미처 하지 못하여 이의신청 심사보고서를 검토하면서 C에게 재무_x000D_
+_x000D_
+제표 및 재무제표 주석 등을 확인하였는지와 3개년 가중평균 당기순이익 적자가 맞_x000D_
+_x000D_
+는지만 확인하였다고 답변하였다._x000D_
+_x000D_
+그러나 D는 ◎◎ 이의신청 건 재결처리 담당과장으로서 이의신청인이 당초 이_x000D_
+_x000D_
+의신청에서 주장하지 않은 3개년 가중평균 당기순이익 적자를 이유로 이 사건 과징금_x000D_
+_x000D_
+을 감경하여 달라며 추가 의견을 제출하였고, 이에 C이 이 사건 과징금 436억 56백만 원의 50%인 218억 28백만 원에 달하는 거액을 감경하는 것으로 심사보고서를 작_x000D_
+_x000D_
+성하여 결재를 상신하였으므로 C에게 최근 3년간 당기순이익 상황 등을 제대로 검_x000D_
+_x000D_
+토하였는지 확인하거나 C이 상신한 이의신청 심사보고서에 첨부된 2015년 재무제_x000D_
+_x000D_
+표 (포괄손익계산서) 를 제대로 검토하여 그 당기순이익이 적자에 이르게 된 중요한_x000D_
+_x000D_
+요인이 있는지 등을 확인하였어야 하나 이를 소홀히 하였다._x000D_
+_x000D_
+더욱이 D는 이의신청인의 대리인에게 3개년 가중평균 당기순이익 적자를 주장_x000D_
+_x000D_
+하지 않은 사유를 문의하도록 지시하기에 앞서 C으로 하여금 ◎◎가 이의신청을 제_x000D_
+_x000D_
+기하면서 과징금 감경을 주장하지 못한 사유를 파악하도록 지시하거나 최근 3년간_x000D_
+_x000D_
+당기순이익 상황 등을 확인해 보도록 지시하지도 않았으므로 위 주장을 받아들이기_x000D_
+_x000D_
+어렵다._x000D_
+_x000D_
+징계요구 양정_x000D_
+_x000D_
+◎◎가 2015년 재무제표에 이 사건 과징금을 선반영하였는데도 직무상 의무를_x000D_
+_x000D_
+게을리하여 이를 조사·확인하지 않아 이 사건 과징금의 50%인 218억 28백만 원_x000D_
+_x000D_
+이 부당하게 감경되도록 한 C과 D의 행위는 ｢국가공무원법｣ 제56조에 위배된 것으_x000D_
+_x000D_
+로 같은 법 제78조 제1항의 징계사유에 해당한다._x000D_
+_x000D_
+조치할 사항 공정거래위원회 위원장은 과징금 감경 관련 이의신청 업무를 부당_x000D_
+_x000D_
+하게 처리한 C과 D를 ｢국가공무원법｣ 제82조에 따라 징계처분 (경징계 이상) 하시기_x000D_
+_x000D_
+바랍니다.(징계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,14 +800,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
